--- a/previous_data.xlsx
+++ b/previous_data.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>172.34</t>
+          <t>172.61</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.45%</t>
+          <t>0.61%</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>192.39</t>
+          <t>192.50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.56%</t>
+          <t>0.62%</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>152.52</t>
+          <t>152.57</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>3.54%</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>436.06</t>
+          <t>436.36</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.41%</t>
+          <t>1.48%</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>122.69</t>
+          <t>122.28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.01%</t>
+          <t>0.68%</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>69.75</t>
+          <t>69.97</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.04%</t>
+          <t>0.27%</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>62.10</t>
+          <t>62.23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-0.96%</t>
+          <t>-0.75%</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>67.87</t>
+          <t>67.74</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>0.59%</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>218.78</t>
+          <t>219.24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>0.50%</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>63.55</t>
+          <t>63.63</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>0.74%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>58.13</t>
+          <t>58.23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>0.62%</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>364.78</t>
+          <t>364.33</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>0.60%</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>297.39</t>
+          <t>296.91</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>1.87%</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3,304.33</t>
+          <t>3,297.72</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.35%</t>
+          <t>2.15%</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>298.20</t>
+          <t>298.15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>0.67%</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>95.45</t>
+          <t>95.50</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>0.77%</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>190.47</t>
+          <t>190.43</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.49%</t>
+          <t>0.46%</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>421.44</t>
+          <t>422.16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.06%</t>
+          <t>4.23%</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>189.52</t>
+          <t>189.75</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>0.45%</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>86.46</t>
+          <t>86.59</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>1.42%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>55.67</t>
+          <t>55.61</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.90%</t>
+          <t>1.79%</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>50.47</t>
+          <t>50.55</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-2.89%</t>
+          <t>-2.73%</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1,241.15</t>
+          <t>1,241.08</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>173.10</t>
+          <t>172.57</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>7.17%</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>145.75</t>
+          <t>145.46</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.26%</t>
+          <t>0.06%</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>135.72</t>
+          <t>136.04</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-0.63%</t>
+          <t>-0.40%</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>238.06</t>
+          <t>237.36</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3.92%</t>
+          <t>3.61%</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>53.11</t>
+          <t>53.43</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>0.89%</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>367.77</t>
+          <t>368.08</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>0.52%</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>64.65</t>
+          <t>64.63</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-2.33%</t>
+          <t>-2.36%</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>356.36</t>
+          <t>357.63</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.91%</t>
+          <t>3.28%</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>72.71</t>
+          <t>72.69</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.25%</t>
+          <t>1.23%</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11.74</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-0.72%</t>
+          <t>-0.59%</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.70%</t>
+          <t>0.90%</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>23.68</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-2.97%</t>
+          <t>-2.87%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>219.75</t>
+          <t>219.66</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.88%</t>
+          <t>1.84%</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>428.16</t>
+          <t>427.33</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.12%</t>
+          <t>1.92%</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>318.96</t>
+          <t>318.47</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.74%</t>
+          <t>2.58%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>32.97</t>
+          <t>32.95</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.40%</t>
+          <t>1.35%</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>133.44</t>
+          <t>133.07</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-1.25%</t>
+          <t>-1.52%</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>319.61</t>
+          <t>319.76</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.57%</t>
+          <t>0.62%</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>110.77</t>
+          <t>110.91</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.42%</t>
+          <t>1.55%</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>742.62</t>
+          <t>742.35</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.33%</t>
+          <t>2.29%</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>261.41</t>
+          <t>261.39</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.96%</t>
+          <t>1.95%</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.82%</t>
+          <t>2.39%</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.72%</t>
+          <t>1.74%</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>31.17</t>
+          <t>31.20</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-0.49%</t>
+          <t>-0.38%</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>608.80</t>
+          <t>609.41</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.77%</t>
+          <t>0.87%</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>603.63</t>
+          <t>604.12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.85%</t>
+          <t>1.94%</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>21.77</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.74%</t>
+          <t>1.30%</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>224.32</t>
+          <t>224.26</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-0.21%</t>
+          <t>-0.24%</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>58.28</t>
+          <t>58.48</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.36%</t>
+          <t>2.72%</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>85.55</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>0.78%</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>28.23</t>
+          <t>28.22</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.42%</t>
+          <t>1.40%</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>151.51</t>
+          <t>151.72</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.61%</t>
+          <t>1.75%</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>276.82</t>
+          <t>276.08</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.36%</t>
+          <t>0.10%</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>73.50</t>
+          <t>73.47</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.14%</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1.21%</t>
+          <t>1.26%</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>204.39</t>
+          <t>205.69</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3.56%</t>
+          <t>4.22%</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>39.25</t>
+          <t>39.21</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2.05%</t>
+          <t>1.95%</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>223.10</t>
+          <t>222.86</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.15%</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-3.38%</t>
+          <t>-3.53%</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>134.86</t>
+          <t>135.07</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>1.11%</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>389.36</t>
+          <t>389.22</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.06%</t>
+          <t>1.02%</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>51.37</t>
+          <t>51.47</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-0.94%</t>
+          <t>-0.75%</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>60.80</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.41%</t>
+          <t>0.74%</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>228.54</t>
+          <t>228.00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.92%</t>
+          <t>1.68%</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>102.91</t>
+          <t>102.81</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.10%</t>
+          <t>1.00%</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>198.22</t>
+          <t>198.05</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.13%</t>
+          <t>1.05%</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>199.78</t>
+          <t>199.63</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1.13%</t>
+          <t>1.05%</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>143.22</t>
+          <t>143.28</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>0.90%</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>198.46</t>
+          <t>198.26</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>0.76%</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>616.16</t>
+          <t>617.38</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>0.88%</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>33.41</t>
+          <t>33.35</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.69%</t>
+          <t>1.52%</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>274.73</t>
+          <t>274.81</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>0.99%</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>230.86</t>
+          <t>230.71</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.11%</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>183.54</t>
+          <t>184.70</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.55%</t>
+          <t>2.20%</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>72.70</t>
+          <t>72.72</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4.72%</t>
+          <t>4.75%</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.82%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>558.97</t>
+          <t>558.74</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>1.19%</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>75.14</t>
+          <t>75.17</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>0.11%</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>97.68</t>
+          <t>97.81</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>0.58%</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>318.26</t>
+          <t>317.95</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1.82%</t>
+          <t>1.72%</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>126.03</t>
+          <t>126.33</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-0.45%</t>
+          <t>-0.21%</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>190.33</t>
+          <t>189.93</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>-0.24%</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>96.24</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1.79%</t>
+          <t>2.20%</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>129.30</t>
+          <t>129.48</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3.83%</t>
+          <t>3.97%</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>215.33</t>
+          <t>214.88</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>-0.22%</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>111.51</t>
+          <t>111.55</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6.74%</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>8,328.72</t>
+          <t>8,347.05</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-0.41%</t>
+          <t>-0.19%</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>141.06</t>
+          <t>140.83</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2.43%</t>
+          <t>2.27%</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>83.62</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>1.99%</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>222.69</t>
+          <t>221.45</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.61%</t>
+          <t>1.04%</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>351.17</t>
+          <t>352.07</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>0.61%</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>63.02</t>
+          <t>62.84</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-1.05%</t>
+          <t>-1.33%</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>508.60</t>
+          <t>510.05</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1.34%</t>
+          <t>1.63%</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>204.76</t>
+          <t>204.36</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.56%</t>
+          <t>0.37%</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>209.74</t>
+          <t>209.62</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-0.88%</t>
+          <t>-0.93%</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>285.05</t>
+          <t>285.24</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.58%</t>
+          <t>0.65%</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>78.85</t>
+          <t>78.82</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1.27%</t>
+          <t>1.23%</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>54.68</t>
+          <t>54.52</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2.34%</t>
+          <t>2.04%</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>267.67</t>
+          <t>267.74</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1.41%</t>
+          <t>1.44%</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>168.59</t>
+          <t>169.24</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>1.35%</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>61.84</t>
+          <t>61.79</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1.11%</t>
+          <t>1.03%</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>222.20</t>
+          <t>222.64</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-3.38%</t>
+          <t>-3.19%</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>106.52</t>
+          <t>106.39</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>-0.09%</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>193.86</t>
+          <t>192.87</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.43%</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>69.93</t>
+          <t>70.13</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0.23%</t>
+          <t>0.52%</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>931.38</t>
+          <t>934.00</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1.72%</t>
+          <t>2.01%</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>270.90</t>
+          <t>272.27</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3.05%</t>
+          <t>3.58%</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>240.83</t>
+          <t>241.07</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1.43%</t>
+          <t>1.54%</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>604.40</t>
+          <t>605.58</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.77%</t>
+          <t>1.97%</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>111.80</t>
+          <t>111.47</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-0.47%</t>
+          <t>-0.76%</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>151.94</t>
+          <t>151.91</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>0.87%</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>67.64</t>
+          <t>67.68</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1.37%</t>
+          <t>1.44%</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>40.45</t>
+          <t>40.44</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>2.59%</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>356.50</t>
+          <t>356.42</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1.11%</t>
+          <t>1.09%</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>181.04</t>
+          <t>181.40</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-3.33%</t>
+          <t>-3.14%</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>112.78</t>
+          <t>112.74</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.20%</t>
+          <t>2.17%</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>125.66</t>
+          <t>125.75</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>3.76%</t>
+          <t>3.83%</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>382.62</t>
+          <t>381.07</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-6.04%</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>121.30</t>
+          <t>121.50</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1.13%</t>
+          <t>1.29%</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-0.63%</t>
+          <t>-0.66%</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>51.18</t>
+          <t>51.22</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-0.21%</t>
+          <t>-0.14%</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>296.46</t>
+          <t>296.77</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0.56%</t>
+          <t>0.66%</t>
         </is>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>175.78</t>
+          <t>175.56</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2.74%</t>
+          <t>2.61%</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>55.04</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>1.38%</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>78.64</t>
+          <t>78.63</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-1.13%</t>
+          <t>-1.14%</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>101.09</t>
+          <t>100.91</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2.46%</t>
+          <t>2.28%</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>4,685.70</t>
+          <t>4,686.41</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-4.89%</t>
+          <t>-4.88%</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>32.64</t>
+          <t>32.72</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1.08%</t>
+          <t>1.33%</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>73.95</t>
+          <t>74.04</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1.04%</t>
+          <t>1.16%</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>141.13</t>
+          <t>140.98</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0.41%</t>
+          <t>0.31%</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>78.63</t>
+          <t>78.75</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>3.69%</t>
+          <t>3.85%</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>46.99</t>
+          <t>47.04</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>1.07%</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>166.17</t>
+          <t>166.18</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1.25%</t>
+          <t>1.26%</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1,011.15</t>
+          <t>1,012.09</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>0.71%</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>181.74</t>
+          <t>181.52</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>0.87%</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>46.71</t>
+          <t>46.66</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>0.28%</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>84.96</t>
+          <t>84.93</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2.01%</t>
+          <t>1.97%</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>84.53</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>3.10%</t>
+          <t>3.21%</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>240.29</t>
+          <t>240.37</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>1.26%</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>31.45</t>
+          <t>31.48</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.52%</t>
+          <t>1.61%</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>105.81</t>
+          <t>105.69</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>0.13%</t>
         </is>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>33.83</t>
+          <t>33.80</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-1.34%</t>
+          <t>-1.43%</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>240.42</t>
+          <t>240.31</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>1.21%</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>233.51</t>
+          <t>233.55</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>1.37%</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>57.01</t>
+          <t>57.04</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1.27%</t>
+          <t>1.33%</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>469.01</t>
+          <t>468.57</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0.23%</t>
+          <t>0.13%</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>167.66</t>
+          <t>167.58</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.92%</t>
+          <t>2.87%</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>206.41</t>
+          <t>205.59</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2.74%</t>
+          <t>2.33%</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>634.67</t>
+          <t>634.74</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1.39%</t>
+          <t>1.41%</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>0.36%</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>147.97</t>
+          <t>148.15</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0.64%</t>
+          <t>0.76%</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>82.31</t>
+          <t>82.48</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1.65%</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>187.53</t>
+          <t>187.50</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2.56%</t>
+          <t>2.54%</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>87.48</t>
+          <t>87.34</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>3.23%</t>
+          <t>3.07%</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>413.95</t>
+          <t>416.00</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>3.12%</t>
+          <t>3.63%</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>263.47</t>
+          <t>263.03</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1.66%</t>
+          <t>1.49%</t>
         </is>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>103.54</t>
+          <t>103.44</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1.37%</t>
+          <t>1.27%</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>174.56</t>
+          <t>174.43</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1.22%</t>
+          <t>1.15%</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>141.34</t>
+          <t>141.23</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1.49%</t>
+          <t>1.41%</t>
         </is>
       </c>
     </row>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>92.96</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>1.22%</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>120.06</t>
+          <t>119.55</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1.48%</t>
+          <t>1.06%</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>108.41</t>
+          <t>108.57</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>0.14%</t>
         </is>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>27.42</t>
+          <t>27.32</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-0.38%</t>
+          <t>-0.73%</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>120.31</t>
+          <t>120.07</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1.51%</t>
+          <t>1.31%</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>163.80</t>
+          <t>164.06</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1.59%</t>
+          <t>1.75%</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>271.41</t>
+          <t>271.63</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>1.86%</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>54.01</t>
+          <t>53.89</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>5.73%</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>60.03</t>
+          <t>60.06</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0.67%</t>
+          <t>0.72%</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>174.71</t>
+          <t>174.75</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>0.92%</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>525.54</t>
+          <t>524.79</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1.91%</t>
+          <t>1.76%</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>217.65</t>
+          <t>217.82</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>0.90%</t>
+          <t>0.98%</t>
         </is>
       </c>
     </row>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>59.15</t>
+          <t>59.19</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-0.59%</t>
+          <t>-0.52%</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>41.60</t>
+          <t>41.58</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1.36%</t>
+          <t>1.32%</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>78.42</t>
+          <t>78.46</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>1.28%</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>186.04</t>
+          <t>186.49</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2.36%</t>
+          <t>2.61%</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-3.23%</t>
+          <t>-3.21%</t>
         </is>
       </c>
     </row>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>198.67</t>
+          <t>198.41</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>1.84%</t>
+          <t>1.71%</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>169.83</t>
+          <t>169.97</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2.16%</t>
+          <t>2.24%</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>71.63</t>
+          <t>71.94</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>4.65%</t>
+          <t>5.11%</t>
         </is>
       </c>
     </row>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>74.03</t>
+          <t>73.76</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.72%</t>
+          <t>2.34%</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>438.99</t>
+          <t>440.80</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2.72%</t>
+          <t>3.15%</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>55.86</t>
+          <t>55.91</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>1.05%</t>
+          <t>1.14%</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>144.05</t>
+          <t>143.70</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-2.44%</t>
+          <t>-2.68%</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>123.65</t>
+          <t>123.89</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>0.19%</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>183.77</t>
+          <t>183.56</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.99%</t>
+          <t>2.88%</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>110.70</t>
+          <t>110.77</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>1.38%</t>
         </is>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>177.12</t>
+          <t>176.95</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-1.70%</t>
+          <t>-1.79%</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>69.46</t>
+          <t>69.59</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-0.24%</t>
+          <t>-0.04%</t>
         </is>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>189.34</t>
+          <t>189.26</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>1.11%</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>463.57</t>
+          <t>463.15</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>1.69%</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>111.41</t>
+          <t>111.55</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>1.61%</t>
+          <t>1.74%</t>
         </is>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>68.30</t>
+          <t>68.34</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>3.77%</t>
+          <t>3.83%</t>
         </is>
       </c>
     </row>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>244.20</t>
+          <t>244.11</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2.45%</t>
+          <t>2.41%</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>86.57</t>
+          <t>86.32</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2.59%</t>
+          <t>2.30%</t>
         </is>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>214.01</t>
+          <t>214.11</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>1.95%</t>
+          <t>2.00%</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>449.57</t>
+          <t>450.38</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2.79%</t>
+          <t>2.97%</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>127.25</t>
+          <t>127.16</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>1.56%</t>
+          <t>1.48%</t>
         </is>
       </c>
     </row>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>225.17</t>
+          <t>225.07</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>1.16%</t>
+          <t>1.12%</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>70.31</t>
+          <t>70.37</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.83%</t>
+          <t>0.92%</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>418.48</t>
+          <t>418.43</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2.22%</t>
+          <t>2.21%</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>17.23</t>
+          <t>17.21</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.88%</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>30.80</t>
+          <t>30.86</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2.89%</t>
+          <t>3.11%</t>
         </is>
       </c>
     </row>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>23.69</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2.36%</t>
+          <t>2.42%</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>284.62</t>
+          <t>284.67</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>0.70%</t>
+          <t>0.72%</t>
         </is>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>247.37</t>
+          <t>247.50</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.36%</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>29.63</t>
+          <t>29.53</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-0.92%</t>
+          <t>-1.24%</t>
         </is>
       </c>
     </row>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>21.09</t>
+          <t>21.12</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>1.47%</t>
+          <t>1.64%</t>
         </is>
       </c>
     </row>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>208.92</t>
+          <t>208.61</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>3.14%</t>
+          <t>2.99%</t>
         </is>
       </c>
     </row>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>17.18</t>
+          <t>17.10</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.53%</t>
         </is>
       </c>
     </row>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>74.20</t>
+          <t>74.19</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>1.34%</t>
+          <t>1.32%</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>148.46</t>
+          <t>148.66</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-1.91%</t>
+          <t>-1.78%</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>57.90</t>
+          <t>57.93</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>1.03%</t>
         </is>
       </c>
     </row>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>111.73</t>
+          <t>111.99</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-0.18%</t>
+          <t>0.05%</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>153.45</t>
+          <t>153.57</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>0.46%</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>100.04</t>
+          <t>100.23</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>1.01%</t>
+          <t>1.21%</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>1,119.10</t>
+          <t>1,121.51</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>0.49%</t>
+          <t>0.71%</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>109.47</t>
+          <t>109.85</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>0.46%</t>
+          <t>0.82%</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>413.23</t>
+          <t>413.81</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2.28%</t>
+          <t>2.43%</t>
         </is>
       </c>
     </row>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>86.34</t>
+          <t>86.26</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>1.97%</t>
+          <t>1.88%</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>212.85</t>
+          <t>212.93</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>0.58%</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>60.41</t>
+          <t>60.63</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2.15%</t>
+          <t>2.52%</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>321.70</t>
+          <t>322.49</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>0.57%</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>30.51</t>
+          <t>30.42</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1.01%</t>
+          <t>0.73%</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>11.37</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-9.19%</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>108.95</t>
+          <t>108.70</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>1.80%</t>
+          <t>1.57%</t>
         </is>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>133.53</t>
+          <t>133.67</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>3.24%</t>
+          <t>3.35%</t>
         </is>
       </c>
     </row>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>1.16%</t>
+          <t>1.24%</t>
         </is>
       </c>
     </row>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>78.02</t>
+          <t>77.85</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>1.22%</t>
+          <t>1.00%</t>
         </is>
       </c>
     </row>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>274.89</t>
+          <t>275.53</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>1.77%</t>
+          <t>2.01%</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>60.33</t>
+          <t>60.29</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2.43%</t>
+          <t>2.36%</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>344.68</t>
+          <t>344.69</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>205.19</t>
+          <t>205.65</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>1.74%</t>
+          <t>1.96%</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>67.69</t>
+          <t>67.43</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>4.07%</t>
+          <t>3.67%</t>
         </is>
       </c>
     </row>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>427.71</t>
+          <t>427.89</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>1.40%</t>
         </is>
       </c>
     </row>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2.68%</t>
+          <t>2.63%</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>250.26</t>
+          <t>250.72</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>0.43%</t>
         </is>
       </c>
     </row>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>11.34</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>0.27%</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>324.41</t>
+          <t>323.63</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>1.50%</t>
+          <t>1.25%</t>
         </is>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>184.15</t>
+          <t>185.35</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>8.48%</t>
         </is>
       </c>
     </row>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>30.30</t>
+          <t>30.26</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>3.22%</t>
+          <t>3.10%</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>139.68</t>
+          <t>139.53</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-0.97%</t>
+          <t>-1.08%</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>39.01</t>
+          <t>39.02</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>0.58%</t>
+          <t>0.62%</t>
         </is>
       </c>
     </row>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>210.99</t>
+          <t>210.42</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>0.60%</t>
+          <t>0.33%</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>279.70</t>
+          <t>280.06</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>0.41%</t>
+          <t>0.54%</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>418.96</t>
+          <t>418.07</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>3.27%</t>
+          <t>3.05%</t>
         </is>
       </c>
     </row>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>167.20</t>
+          <t>167.53</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>0.99%</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>121.69</t>
+          <t>121.92</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>1.69%</t>
+          <t>1.89%</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>110.40</t>
+          <t>110.52</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>0.77%</t>
+          <t>0.88%</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>216.54</t>
+          <t>217.22</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>0.70%</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>113.74</t>
+          <t>113.80</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>0.46%</t>
+          <t>0.52%</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>148.28</t>
+          <t>148.30</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>1.75%</t>
+          <t>1.77%</t>
         </is>
       </c>
     </row>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>123.25</t>
+          <t>123.30</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>1.14%</t>
+          <t>1.19%</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>584.41</t>
+          <t>584.55</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -6127,7 +6127,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>2.65%</t>
+          <t>2.67%</t>
         </is>
       </c>
     </row>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>56.44</t>
+          <t>56.46</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>1.35%</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>184.83</t>
+          <t>185.14</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>-0.85%</t>
+          <t>-0.68%</t>
         </is>
       </c>
     </row>
@@ -6183,7 +6183,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>219.31</t>
+          <t>219.49</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>0.24%</t>
         </is>
       </c>
     </row>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>480.01</t>
+          <t>480.41</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>1.29%</t>
+          <t>1.38%</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>182.33</t>
+          <t>182.45</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>0.58%</t>
+          <t>0.65%</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>421.10</t>
+          <t>424.07</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>-1.27%</t>
+          <t>-0.57%</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>74.04</t>
+          <t>74.05</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>3.71%</t>
+          <t>3.73%</t>
         </is>
       </c>
     </row>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>81.04</t>
+          <t>81.20</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>2.37%</t>
+          <t>2.58%</t>
         </is>
       </c>
     </row>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>196.14</t>
+          <t>195.23</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>1.93%</t>
+          <t>1.46%</t>
         </is>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>1,413.72</t>
+          <t>1,417.66</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>0.34%</t>
         </is>
       </c>
     </row>
@@ -6359,7 +6359,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>1,356.14</t>
+          <t>1,358.01</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>1.20%</t>
+          <t>1.34%</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>137.00</t>
+          <t>137.34</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>2.54%</t>
+          <t>2.79%</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>132.95</t>
+          <t>132.30</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -6413,7 +6413,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>-3.94%</t>
+          <t>-4.41%</t>
         </is>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>238.36</t>
+          <t>239.16</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>-0.48%</t>
+          <t>-0.15%</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>47.86</t>
+          <t>47.89</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>0.43%</t>
+          <t>0.50%</t>
         </is>
       </c>
     </row>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>146.95</t>
+          <t>146.89</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>4.19%</t>
+          <t>4.16%</t>
         </is>
       </c>
     </row>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>396.23</t>
+          <t>397.15</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>1.81%</t>
+          <t>2.05%</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>76.40</t>
+          <t>76.43</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>1.98%</t>
+          <t>2.02%</t>
         </is>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>56.93</t>
+          <t>56.88</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6.00%</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>125.48</t>
+          <t>125.70</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>0.30%</t>
         </is>
       </c>
     </row>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>49.31</t>
+          <t>49.32</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>1.95%</t>
+          <t>1.99%</t>
         </is>
       </c>
     </row>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>41.21</t>
+          <t>41.31</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>0.27%</t>
         </is>
       </c>
     </row>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>236.44</t>
+          <t>236.73</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>1.05%</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>109.98</t>
+          <t>110.52</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>2.42%</t>
+          <t>2.92%</t>
         </is>
       </c>
     </row>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>188.55</t>
+          <t>188.78</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>2.03%</t>
+          <t>2.15%</t>
         </is>
       </c>
     </row>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>132.66</t>
+          <t>132.87</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>2.25%</t>
+          <t>2.42%</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>788.49</t>
+          <t>789.00</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>2.27%</t>
+          <t>2.33%</t>
         </is>
       </c>
     </row>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>524.65</t>
+          <t>524.99</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>2.92%</t>
+          <t>2.99%</t>
         </is>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>82.05</t>
+          <t>81.50</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>1.49%</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>62.45</t>
+          <t>62.70</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>3.94%</t>
+          <t>4.36%</t>
         </is>
       </c>
     </row>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>45.33</t>
+          <t>45.36</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>2.10%</t>
+          <t>2.16%</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>244.16</t>
+          <t>243.99</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>2.35%</t>
+          <t>2.28%</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>86.29</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.05%</t>
         </is>
       </c>
     </row>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>263.97</t>
+          <t>264.35</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -6875,7 +6875,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>1.11%</t>
+          <t>1.26%</t>
         </is>
       </c>
     </row>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>372.41</t>
+          <t>372.81</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>-0.35%</t>
+          <t>-0.24%</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>507.03</t>
+          <t>506.29</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>3.41%</t>
+          <t>3.26%</t>
         </is>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>77.71</t>
+          <t>77.73</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>0.53%</t>
+          <t>0.56%</t>
         </is>
       </c>
     </row>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>139.08</t>
+          <t>138.91</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>2.56%</t>
+          <t>2.43%</t>
         </is>
       </c>
     </row>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>160.71</t>
+          <t>160.58</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>3.56%</t>
+          <t>3.48%</t>
         </is>
       </c>
     </row>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>442.93</t>
+          <t>442.46</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>1.59%</t>
+          <t>1.48%</t>
         </is>
       </c>
     </row>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>133.00</t>
+          <t>133.14</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-5.93%</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>663.61</t>
+          <t>663.59</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>32.61</t>
+          <t>32.74</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>-0.40%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>218.08</t>
+          <t>218.22</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>1.32%</t>
+          <t>1.39%</t>
         </is>
       </c>
     </row>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>88.42</t>
+          <t>88.38</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>0.34%</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>484.01</t>
+          <t>484.75</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>1.71%</t>
+          <t>1.87%</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>35.86</t>
+          <t>35.89</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>5.37%</t>
         </is>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>130.56</t>
+          <t>130.66</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -7183,7 +7183,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>1.00%</t>
+          <t>1.08%</t>
         </is>
       </c>
     </row>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>27.14</t>
+          <t>27.11</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-0.11%</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>467.41</t>
+          <t>467.84</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -7227,7 +7227,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>0.55%</t>
+          <t>0.64%</t>
         </is>
       </c>
     </row>
@@ -7239,7 +7239,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>296.65</t>
+          <t>297.44</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -7249,7 +7249,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>3.92%</t>
         </is>
       </c>
     </row>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>55.68</t>
+          <t>55.74</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>0.81%</t>
+          <t>0.92%</t>
         </is>
       </c>
     </row>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>57.62</t>
+          <t>57.60</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>-0.41%</t>
+          <t>-0.45%</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>642.42</t>
+          <t>638.49</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>2.65%</t>
+          <t>2.02%</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>49.18</t>
+          <t>49.22</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>-0.49%</t>
+          <t>-0.40%</t>
         </is>
       </c>
     </row>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>137.10</t>
+          <t>137.30</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>-0.56%</t>
+          <t>-0.41%</t>
         </is>
       </c>
     </row>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>615.94</t>
+          <t>616.46</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>0.60%</t>
         </is>
       </c>
     </row>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>86.89</t>
+          <t>86.88</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>1,324.67</t>
+          <t>1,324.48</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.24%</t>
         </is>
       </c>
     </row>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>150.33</t>
+          <t>150.51</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>-0.13%</t>
+          <t>-0.01%</t>
         </is>
       </c>
     </row>
@@ -7459,7 +7459,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>109.43</t>
+          <t>109.38</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>3.48%</t>
+          <t>3.43%</t>
         </is>
       </c>
     </row>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>428.56</t>
+          <t>428.50</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>-0.11%</t>
+          <t>-0.12%</t>
         </is>
       </c>
     </row>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>58.86</t>
+          <t>58.51</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>1.54%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>528.85</t>
+          <t>528.06</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>0.64%</t>
         </is>
       </c>
     </row>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>78.63</t>
+          <t>78.67</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>0.55%</t>
+          <t>0.60%</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>116.45</t>
+          <t>116.79</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>2.61%</t>
+          <t>2.92%</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>282.47</t>
+          <t>282.61</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>0.59%</t>
         </is>
       </c>
     </row>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>74.43</t>
+          <t>74.25</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>1.53%</t>
+          <t>1.28%</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>585.39</t>
+          <t>586.08</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>-1.21%</t>
+          <t>-1.10%</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>551.85</t>
+          <t>552.64</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>1.71%</t>
+          <t>1.86%</t>
         </is>
       </c>
     </row>
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>277.56</t>
+          <t>277.72</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>0.19%</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>96.06</t>
+          <t>96.24</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>-1.90%</t>
+          <t>-1.72%</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>221.10</t>
+          <t>221.96</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7733,7 +7733,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>0.66%</t>
         </is>
       </c>
     </row>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>150.44</t>
+          <t>150.82</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>-1.48%</t>
+          <t>-1.23%</t>
         </is>
       </c>
     </row>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>79.76</t>
+          <t>79.87</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>1.18%</t>
+          <t>1.32%</t>
         </is>
       </c>
     </row>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>220.35</t>
+          <t>220.18</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7799,7 +7799,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>1.83%</t>
+          <t>1.76%</t>
         </is>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>27.05</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>-0.44%</t>
+          <t>-0.48%</t>
         </is>
       </c>
     </row>
@@ -7833,7 +7833,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>250.87</t>
+          <t>251.85</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -7843,7 +7843,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>2.25%</t>
+          <t>2.65%</t>
         </is>
       </c>
     </row>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>504.22</t>
+          <t>504.45</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>4.53%</t>
+          <t>4.58%</t>
         </is>
       </c>
     </row>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>107.46</t>
+          <t>107.75</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>0.55%</t>
+          <t>0.82%</t>
         </is>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>123.75</t>
+          <t>123.67</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>1.36%</t>
+          <t>1.29%</t>
         </is>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>871.37</t>
+          <t>869.68</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>1.55%</t>
+          <t>1.35%</t>
         </is>
       </c>
     </row>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>27.87</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>1.59%</t>
+          <t>1.57%</t>
         </is>
       </c>
     </row>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>30.92</t>
+          <t>30.94</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>1.71%</t>
+          <t>1.78%</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>42.37</t>
+          <t>42.35</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>1.67%</t>
+          <t>1.63%</t>
         </is>
       </c>
     </row>
@@ -8009,7 +8009,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>124.77</t>
+          <t>125.07</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>0.43%</t>
         </is>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>73.21</t>
+          <t>73.17</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>3.34%</t>
+          <t>3.29%</t>
         </is>
       </c>
     </row>
@@ -8063,7 +8063,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>1.17%</t>
+          <t>1.18%</t>
         </is>
       </c>
     </row>
@@ -8075,7 +8075,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>70.82</t>
+          <t>70.85</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>0.13%</t>
         </is>
       </c>
     </row>
@@ -8097,7 +8097,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>33.23</t>
+          <t>33.27</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -8107,7 +8107,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>3.52%</t>
+          <t>3.64%</t>
         </is>
       </c>
     </row>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>84.58</t>
+          <t>84.73</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>0.81%</t>
+          <t>0.99%</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>73.84</t>
+          <t>74.02</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>0.45%</t>
+          <t>0.69%</t>
         </is>
       </c>
     </row>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>32.39</t>
+          <t>32.45</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>5.29%</t>
         </is>
       </c>
     </row>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>97.94</t>
+          <t>97.98</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>2.95%</t>
+          <t>3.00%</t>
         </is>
       </c>
     </row>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>98.98</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>1.38%</t>
+          <t>1.40%</t>
         </is>
       </c>
     </row>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>124.64</t>
+          <t>124.69</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -8239,7 +8239,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>-0.95%</t>
+          <t>-0.91%</t>
         </is>
       </c>
     </row>
@@ -8251,7 +8251,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>86.60</t>
+          <t>86.62</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>2.76%</t>
+          <t>2.79%</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>395.42</t>
+          <t>395.85</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>3.13%</t>
+          <t>3.24%</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>216.94</t>
+          <t>217.07</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -8305,7 +8305,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>3.49%</t>
+          <t>3.55%</t>
         </is>
       </c>
     </row>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>105.28</t>
+          <t>105.39</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>1.64%</t>
+          <t>1.75%</t>
         </is>
       </c>
     </row>
@@ -8339,7 +8339,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>231.18</t>
+          <t>232.25</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>-0.66%</t>
+          <t>-0.20%</t>
         </is>
       </c>
     </row>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>68.26</t>
+          <t>68.30</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>0.26%</t>
+          <t>0.32%</t>
         </is>
       </c>
     </row>
@@ -8383,7 +8383,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>33.24</t>
+          <t>33.27</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>1.54%</t>
+          <t>1.65%</t>
         </is>
       </c>
     </row>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>-3.60%</t>
+          <t>-3.45%</t>
         </is>
       </c>
     </row>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>196.34</t>
+          <t>197.17</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -8437,7 +8437,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>0.80%</t>
+          <t>1.67%</t>
         </is>
       </c>
     </row>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>140.96</t>
+          <t>140.94</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>2.95%</t>
+          <t>2.94%</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>192.14</t>
+          <t>191.59</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>1.80%</t>
+          <t>1.52%</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>53.21</t>
+          <t>53.15</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>1.11%</t>
+          <t>1.01%</t>
         </is>
       </c>
     </row>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>101.63</t>
+          <t>101.25</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>4.05%</t>
+          <t>3.67%</t>
         </is>
       </c>
     </row>
@@ -8537,7 +8537,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>287.89</t>
+          <t>288.59</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>1.37%</t>
+          <t>1.62%</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>34.32</t>
+          <t>34.23</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>0.53%</t>
         </is>
       </c>
     </row>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>81.68</t>
+          <t>81.67</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>2.11%</t>
+          <t>2.10%</t>
         </is>
       </c>
     </row>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>48.44</t>
+          <t>48.31</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>1.62%</t>
         </is>
       </c>
     </row>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>328.07</t>
+          <t>326.84</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>1.08%</t>
+          <t>0.70%</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>175.79</t>
+          <t>175.96</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>1.05%</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>529.46</t>
+          <t>529.75</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>0.58%</t>
         </is>
       </c>
     </row>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>201.29</t>
+          <t>201.23</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>1.50%</t>
+          <t>1.47%</t>
         </is>
       </c>
     </row>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>69.54</t>
+          <t>69.47</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -8723,7 +8723,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>1.05%</t>
         </is>
       </c>
     </row>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>139.44</t>
+          <t>140.13</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>-0.87%</t>
+          <t>-0.38%</t>
         </is>
       </c>
     </row>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>61.02</t>
+          <t>61.03</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>1.33%</t>
         </is>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>73.46</t>
+          <t>73.49</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>0.53%</t>
+          <t>0.57%</t>
         </is>
       </c>
     </row>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>74.12</t>
+          <t>74.02</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>1.94%</t>
         </is>
       </c>
     </row>
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>54.80</t>
+          <t>54.99</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -8833,7 +8833,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>3.47%</t>
+          <t>3.83%</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>86.42</t>
+          <t>86.51</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>1.46%</t>
+          <t>1.56%</t>
         </is>
       </c>
     </row>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>354.92</t>
+          <t>354.18</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>1.84%</t>
+          <t>1.63%</t>
         </is>
       </c>
     </row>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>63.49</t>
+          <t>63.66</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>1.99%</t>
+          <t>2.27%</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>33.06</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>1.54%</t>
         </is>
       </c>
     </row>
@@ -8933,7 +8933,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>244.65</t>
+          <t>245.07</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -8943,7 +8943,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>1.07%</t>
+          <t>1.25%</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>0.61%</t>
+          <t>0.34%</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>1,097.92</t>
+          <t>1,096.85</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>2.47%</t>
+          <t>2.37%</t>
         </is>
       </c>
     </row>
@@ -8999,7 +8999,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>297.35</t>
+          <t>297.04</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -9009,7 +9009,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>0.43%</t>
+          <t>0.33%</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>2.29%</t>
+          <t>2.55%</t>
         </is>
       </c>
     </row>
@@ -9043,7 +9043,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>145.93</t>
+          <t>145.66</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -9053,7 +9053,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>-0.25%</t>
+          <t>-0.43%</t>
         </is>
       </c>
     </row>
@@ -9065,7 +9065,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>183.29</t>
+          <t>183.51</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>3.49%</t>
+          <t>3.61%</t>
         </is>
       </c>
     </row>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>110.22</t>
+          <t>110.11</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>-0.10%</t>
+          <t>-0.20%</t>
         </is>
       </c>
     </row>
@@ -9109,7 +9109,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>242.07</t>
+          <t>242.13</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -9119,7 +9119,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>1.77%</t>
+          <t>1.79%</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>275.96</t>
+          <t>275.57</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.17%</t>
         </is>
       </c>
     </row>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>106.22</t>
+          <t>106.35</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>0.91%</t>
         </is>
       </c>
     </row>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>359.02</t>
+          <t>359.18</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>2.55%</t>
         </is>
       </c>
     </row>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>115.73</t>
+          <t>115.81</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -9207,7 +9207,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>-1.11%</t>
+          <t>-1.04%</t>
         </is>
       </c>
     </row>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>45.68</t>
+          <t>45.64</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>-0.04%</t>
         </is>
       </c>
     </row>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>47.98</t>
+          <t>47.90</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>-0.05%</t>
+          <t>-0.21%</t>
         </is>
       </c>
     </row>
@@ -9263,7 +9263,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>10.43</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -9273,7 +9273,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>2.46%</t>
         </is>
       </c>
     </row>
@@ -9307,7 +9307,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>97.16</t>
+          <t>97.20</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -9317,7 +9317,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>3.11%</t>
+          <t>3.15%</t>
         </is>
       </c>
     </row>
@@ -9329,7 +9329,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>198.54</t>
+          <t>198.56</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.01%</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>17.31</t>
+          <t>17.30</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>1.73%</t>
+          <t>1.70%</t>
         </is>
       </c>
     </row>
@@ -9373,7 +9373,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>187.64</t>
+          <t>187.90</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>0.06%</t>
         </is>
       </c>
     </row>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>33.57</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>123.49</t>
+          <t>123.37</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -9427,7 +9427,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>2.70%</t>
+          <t>2.60%</t>
         </is>
       </c>
     </row>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>79.03</t>
+          <t>78.91</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.17%</t>
         </is>
       </c>
     </row>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>26.61</t>
+          <t>26.64</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>1.18%</t>
+          <t>1.29%</t>
         </is>
       </c>
     </row>
@@ -9483,7 +9483,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>89.77</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>-2.10%</t>
+          <t>-2.22%</t>
         </is>
       </c>
     </row>
@@ -9505,7 +9505,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>209.19</t>
+          <t>209.26</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -9515,7 +9515,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.04%</t>
         </is>
       </c>
     </row>
@@ -9527,7 +9527,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>1,894.64</t>
+          <t>1,894.19</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>-0.31%</t>
+          <t>-0.33%</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>123.48</t>
+          <t>123.81</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>1.55%</t>
+          <t>1.83%</t>
         </is>
       </c>
     </row>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>120.24</t>
+          <t>120.49</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>-0.24%</t>
+          <t>-0.03%</t>
         </is>
       </c>
     </row>
@@ -9593,7 +9593,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>88.00</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>1.30%</t>
+          <t>1.57%</t>
         </is>
       </c>
     </row>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>209.14</t>
+          <t>208.98</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>0.19%</t>
         </is>
       </c>
     </row>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>44.90</t>
+          <t>44.86</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>1.25%</t>
+          <t>1.17%</t>
         </is>
       </c>
     </row>
@@ -9659,7 +9659,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>40.24</t>
+          <t>40.28</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>0.98%</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>184.66</t>
+          <t>183.51</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>-4.26%</t>
+          <t>-4.86%</t>
         </is>
       </c>
     </row>
@@ -9703,7 +9703,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>73.10</t>
+          <t>73.07</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>1.85%</t>
+          <t>1.81%</t>
         </is>
       </c>
     </row>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>105.21</t>
+          <t>105.35</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -9735,7 +9735,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>2.13%</t>
+          <t>2.26%</t>
         </is>
       </c>
     </row>
@@ -9747,7 +9747,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>76.18</t>
+          <t>76.09</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>0.01%</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>148.37</t>
+          <t>148.55</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -9779,7 +9779,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>0.20%</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>466.04</t>
+          <t>466.14</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>0.66%</t>
+          <t>0.68%</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>240.24</t>
+          <t>241.01</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>-1.41%</t>
+          <t>-1.10%</t>
         </is>
       </c>
     </row>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>120.02</t>
+          <t>120.27</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -9845,7 +9845,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>1.06%</t>
         </is>
       </c>
     </row>
@@ -9857,7 +9857,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>117.59</t>
+          <t>117.27</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -9867,7 +9867,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>7.12%</t>
         </is>
       </c>
     </row>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>161.95</t>
+          <t>161.72</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -9889,7 +9889,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>0.37%</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>82.54</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>1.07%</t>
+          <t>1.08%</t>
         </is>
       </c>
     </row>
@@ -9923,7 +9923,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>40.29</t>
+          <t>40.30</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>0.20%</t>
         </is>
       </c>
     </row>
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>1.90%</t>
+          <t>2.04%</t>
         </is>
       </c>
     </row>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>19.83</t>
+          <t>19.82</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>1.33%</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>678.37</t>
+          <t>678.42</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>1.33%</t>
+          <t>1.34%</t>
         </is>
       </c>
     </row>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>268.46</t>
+          <t>268.86</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>-0.38%</t>
+          <t>-0.23%</t>
         </is>
       </c>
     </row>
@@ -10033,7 +10033,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>169.93</t>
+          <t>169.81</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -10043,7 +10043,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>3.93%</t>
+          <t>3.86%</t>
         </is>
       </c>
     </row>
@@ -10055,7 +10055,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>80.73</t>
+          <t>80.93</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>5.92%</t>
         </is>
       </c>
     </row>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>56.13</t>
+          <t>56.20</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>-2.42%</t>
+          <t>-2.29%</t>
         </is>
       </c>
     </row>
@@ -10099,7 +10099,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>349.96</t>
+          <t>350.56</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>-0.40%</t>
+          <t>-0.23%</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>106.60</t>
+          <t>106.66</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>0.18%</t>
         </is>
       </c>
     </row>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>310.56</t>
+          <t>310.97</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>1.62%</t>
+          <t>1.76%</t>
         </is>
       </c>
     </row>
@@ -10187,7 +10187,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>78.77</t>
+          <t>78.45</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>0.82%</t>
         </is>
       </c>
     </row>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>167.62</t>
+          <t>167.27</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>1.86%</t>
+          <t>1.65%</t>
         </is>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>357.20</t>
+          <t>358.00</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6.09%</t>
         </is>
       </c>
     </row>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>152.41</t>
+          <t>152.65</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>0.80%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
@@ -10285,7 +10285,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>-1.10%</t>
+          <t>-1.09%</t>
         </is>
       </c>
     </row>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>88.32</t>
+          <t>88.23</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>-0.42%</t>
+          <t>-0.52%</t>
         </is>
       </c>
     </row>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>37.02</t>
+          <t>36.97</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>1.20%</t>
+          <t>1.07%</t>
         </is>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>25.69</t>
+          <t>25.70</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>-0.50%</t>
+          <t>-0.46%</t>
         </is>
       </c>
     </row>
@@ -10363,7 +10363,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>104.32</t>
+          <t>104.28</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>-1.45%</t>
+          <t>-1.48%</t>
         </is>
       </c>
     </row>
@@ -10385,7 +10385,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>-0.65%</t>
+          <t>-0.47%</t>
         </is>
       </c>
     </row>
@@ -10407,7 +10407,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>323.81</t>
+          <t>323.64</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -10417,7 +10417,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>2.35%</t>
+          <t>2.30%</t>
         </is>
       </c>
     </row>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>182.15</t>
+          <t>183.08</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>-1.17%</t>
+          <t>-0.67%</t>
         </is>
       </c>
     </row>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>74.22</t>
+          <t>74.16</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -10461,7 +10461,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>0.42%</t>
         </is>
       </c>
     </row>
@@ -10473,7 +10473,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>947.28</t>
+          <t>947.73</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>0.43%</t>
+          <t>0.48%</t>
         </is>
       </c>
     </row>
@@ -10495,7 +10495,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>95.50</t>
+          <t>95.35</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -10505,7 +10505,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>2.39%</t>
+          <t>2.23%</t>
         </is>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>57.40</t>
+          <t>57.44</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -10527,7 +10527,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>0.87%</t>
+          <t>0.95%</t>
         </is>
       </c>
     </row>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>62.31</t>
+          <t>62.42</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>-0.65%</t>
+          <t>-0.46%</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>63.08</t>
+          <t>63.12</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>1.22%</t>
+          <t>1.28%</t>
         </is>
       </c>
     </row>
@@ -10583,7 +10583,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>31.66</t>
+          <t>31.71</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>0.28%</t>
         </is>
       </c>
     </row>
@@ -10605,7 +10605,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>51.42</t>
+          <t>51.55</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>3.17%</t>
+          <t>3.43%</t>
         </is>
       </c>
     </row>
@@ -10627,7 +10627,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>375.78</t>
+          <t>375.61</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>1.30%</t>
         </is>
       </c>
     </row>
@@ -10649,7 +10649,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>398.49</t>
+          <t>398.36</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>3.23%</t>
+          <t>3.20%</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>772.49</t>
+          <t>767.24</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>1.98%</t>
+          <t>1.29%</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>160.73</t>
+          <t>160.71</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>2.01%</t>
+          <t>1.99%</t>
         </is>
       </c>
     </row>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>126.50</t>
+          <t>126.52</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>-0.57%</t>
+          <t>-0.55%</t>
         </is>
       </c>
     </row>
@@ -10737,7 +10737,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>22.49</t>
+          <t>22.50</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -10747,7 +10747,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>0.87%</t>
+          <t>0.94%</t>
         </is>
       </c>
     </row>
@@ -10759,7 +10759,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>31.15</t>
+          <t>31.22</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -10769,7 +10769,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>2.77%</t>
+          <t>3.00%</t>
         </is>
       </c>
     </row>
@@ -10781,7 +10781,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>171.01</t>
+          <t>170.97</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>3.21%</t>
+          <t>3.19%</t>
         </is>
       </c>
     </row>
@@ -10803,7 +10803,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>17.66</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>-3.52%</t>
+          <t>-3.61%</t>
         </is>
       </c>
     </row>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>160.14</t>
+          <t>159.99</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>-0.09%</t>
+          <t>-0.18%</t>
         </is>
       </c>
     </row>
@@ -10847,7 +10847,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>81.68</t>
+          <t>81.69</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>-0.12%</t>
+          <t>-0.11%</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>112.37</t>
+          <t>112.77</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -10879,7 +10879,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>-0.20%</t>
+          <t>0.15%</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>367.86</t>
+          <t>367.17</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>0.41%</t>
+          <t>0.23%</t>
         </is>
       </c>
     </row>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>39.17</t>
+          <t>39.06</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>0.47%</t>
+          <t>0.21%</t>
         </is>
       </c>
     </row>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>20.79</t>
+          <t>20.80</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>-1.49%</t>
+          <t>-1.42%</t>
         </is>
       </c>
     </row>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>193.64</t>
+          <t>193.21</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -10967,7 +10967,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>1.40%</t>
+          <t>1.17%</t>
         </is>
       </c>
     </row>
@@ -10979,7 +10979,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>367.22</t>
+          <t>366.41</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>2.86%</t>
+          <t>2.64%</t>
         </is>
       </c>
     </row>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>90.70</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>-0.31%</t>
+          <t>-0.40%</t>
         </is>
       </c>
     </row>
@@ -11023,7 +11023,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>29.49</t>
+          <t>29.48</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>0.72%</t>
         </is>
       </c>
     </row>
@@ -11045,7 +11045,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>127.62</t>
+          <t>127.83</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -11055,7 +11055,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>1.07%</t>
+          <t>1.24%</t>
         </is>
       </c>
     </row>
@@ -11067,7 +11067,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>58.89</t>
+          <t>59.04</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -11077,7 +11077,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>0.90%</t>
+          <t>1.17%</t>
         </is>
       </c>
     </row>
@@ -11089,7 +11089,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>70.58</t>
+          <t>70.55</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -11099,7 +11099,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>1.28%</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>25.64</t>
+          <t>25.60</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -11121,7 +11121,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>-0.83%</t>
+          <t>-0.97%</t>
         </is>
       </c>
     </row>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>247.62</t>
+          <t>247.73</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>2.98%</t>
+          <t>3.02%</t>
         </is>
       </c>
     </row>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>123.52</t>
+          <t>123.95</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -11165,7 +11165,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>4.33%</t>
+          <t>4.70%</t>
         </is>
       </c>
     </row>
@@ -11177,7 +11177,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>687.76</t>
+          <t>687.80</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -11199,7 +11199,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>243.65</t>
+          <t>243.28</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>0.76%</t>
+          <t>0.61%</t>
         </is>
       </c>
     </row>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>148.73</t>
+          <t>148.94</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>-0.28%</t>
+          <t>-0.14%</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>530.36</t>
+          <t>530.79</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>1.54%</t>
+          <t>1.62%</t>
         </is>
       </c>
     </row>
@@ -11287,7 +11287,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>291.09</t>
+          <t>290.77</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>1.45%</t>
         </is>
       </c>
     </row>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>55.29</t>
+          <t>55.26</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>1.22%</t>
+          <t>1.17%</t>
         </is>
       </c>
     </row>
@@ -11331,7 +11331,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>24.63</t>
+          <t>24.65</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>1.76%</t>
+          <t>1.86%</t>
         </is>
       </c>
     </row>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>71.97</t>
+          <t>71.96</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -11363,7 +11363,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>1.05%</t>
+          <t>1.04%</t>
         </is>
       </c>
     </row>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>169.47</t>
+          <t>169.69</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -11385,7 +11385,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>1.47%</t>
+          <t>1.60%</t>
         </is>
       </c>
     </row>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>215.00</t>
+          <t>214.94</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -11407,7 +11407,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>0.60%</t>
+          <t>0.57%</t>
         </is>
       </c>
     </row>
@@ -11419,7 +11419,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>248.00</t>
+          <t>247.79</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -11429,7 +11429,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>3.43%</t>
+          <t>3.34%</t>
         </is>
       </c>
     </row>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>158.31</t>
+          <t>158.24</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -11451,7 +11451,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>-1.96%</t>
+          <t>-2.00%</t>
         </is>
       </c>
     </row>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>43.72</t>
+          <t>43.74</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -11473,7 +11473,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.37%</t>
         </is>
       </c>
     </row>
@@ -11485,7 +11485,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>361.42</t>
+          <t>361.52</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -11495,7 +11495,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>2.10%</t>
+          <t>2.13%</t>
         </is>
       </c>
     </row>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>574.08</t>
+          <t>573.06</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -11517,7 +11517,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>2.40%</t>
         </is>
       </c>
     </row>
